--- a/responses/GSAR Process.xlsx
+++ b/responses/GSAR Process.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,6 +463,378 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>How do I update a supplier payment terms?</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>To update a supplier's payment terms, you need to follow the "Changes to Existing Supplier GSAR" process. Here's a step-by-step guide:
+1. **Identify the Change Type**: Since you want to update the payment terms, this falls under the category of internal changes to an existing supplier, which does not require documentation from the supplier.
+2. **Provide Justification**: If you are requesting to change the payment terms from the standard N90 (Net 90 or Due in 90 Days), you must provide a justification for why the specific terms are being selected. This justification needs to be submitted to the GSAR Super User.
+3. **Contact a GSAR Super User**: As the requestor, you need to find a GSAR Super User. Use the GSAR Super User Contact List to locate a Super User at your work location.
+4. **Submit the Request**: Once you have identified a GSAR Super User, contact them and explain the specific changes you want to make to the supplier's payment terms. Provide the necessary justification if the terms differ from the standard N90.
+5. **Verification**: The GSAR Super User will verify that the requested changes make sense in relation to the existing supplier information in the system.
+By following these steps, you can successfully update the payment terms for an existing supplier in the Supplier 360 system.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-04-16 14:34:54</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>form to update name?</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>To update the name of a supplier using the Global Supplier Add Change Request (GSAR) process, you need to follow these steps:
+1. **Identify a GSAR Super User**: 
+   - The requestor (person who wants to update the supplier's name) must find a GSAR Super User. This can be done by using the GSAR Super User Contact List, filtering by work location, and selecting a GSAR Super User at random.
+2. **Contact the GSAR Super User**:
+   - Explain that you need to update the name of an existing supplier.
+3. **Prepare Required Documentation**:
+   - **Supplier Letterhead**: The letterhead must state the previous name (as it appears in the system) and the new name. For example, the letterhead should include verbiage like: “Please update our name from (old name in the system) to (new name).”
+   - **Tax Document**: If applicable, ensure that the new name matches the name provided on the tax document.
+4. **Submit the Request**:
+   - Provide the GSAR Super User with the necessary documentation and information to process the name change.
+5. **Verification**:
+   - The GSAR Super User will verify the request to ensure it aligns with the existing supplier information in the system.
+By following these steps, you can successfully update the name of a supplier in the Supplier 360 system through the GSAR process.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2025-04-16 14:38:44</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>how do I update payment terms?</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>To update payment terms for a supplier in the Global Supplier Add Change Request (GSAR) process, follow these steps:
+### Internal Changes to Existing Supplier GSARs
+- **Payment Terms Change**: 
+  - If you are requesting to change the payment terms of a supplier from any terms other than N90 (Net 90 or Due in 90 Days), you must provide a justification to the GSAR Super User explaining why those specific terms were selected.
+### Steps to Update Payment Terms:
+1. **Identify the Need for Change**: Determine if the current payment terms need to be updated and why.
+2. **Prepare Justification**: Clearly articulate the reason for changing the payment terms from the standard N90. This justification is necessary for the GSAR Super User to process the request.
+3. **Contact a GSAR Super User**: 
+   - Use the GSAR Super User Contact List to find a Super User at your location.
+   - Explain the specific changes you want to make, including the updated payment terms and your justification.
+4. **Submit the Request**: The GSAR Super User will verify the requested changes and process the update in the Supplier 360 system.
+By following these steps, you can ensure that the payment terms for a supplier are updated correctly in the system.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2025-04-16 14:38:59</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>form to change name</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>### Global Supplier Add Change Request (GSAR) Overview
+The **Global Supplier Add Change Request (GSAR)** is a process used by Cummins, Inc. to add or update suppliers in their Supplier 360 (S360) system. This ensures accurate supplier information and requires verification through documentation for any new additions or changes.
+### Getting Started with GSAR
+1. **Identify a GSAR Super User**: The requestor must find a GSAR Super User using the GSAR Super User Contact List, filtered by their work location.
+2. **Contact the GSAR Super User**: Explain whether you are adding a new supplier or updating an existing one, and specify the changes.
+### Types of GSAR Requests
+- **New Supplier GSAR**: Used to add a new supplier. Initial information required includes:
+  - Country of the supplier
+  - Whether the supplier is indirect or direct
+  - Commodity or category of the supplier
+  - Payment terms
+- **Changes to Existing Supplier GSAR**: Used to update existing supplier information. There are two types:
+  - **Internal Changes**: Do not require documentation (e.g., payment terms change, add entity request, supplier inactivation).
+  - **External Changes**: Require documentation (e.g., supplier name change, address change, contact change, banking change, currency change).
+### Documentation Requirements
+#### New Supplier GSAR
+- **Tax Documentation**:
+  - **US**: W-9 required
+  - **India**: PAN Card required
+  - **Other Locations**: VAT/Tax ID number on letterhead
+- **Letterhead Requirements**:
+  - **Indirect Suppliers**: Must include supplier name, taxpayer ID, tax/VAT registration number, address, contact details, currency, banking details, and email for remittance advice.
+  - **Direct Suppliers**: Must include supplier name, taxpayer ID, tax/VAT registration number, purchasing/ship-from address, contact details, currency, banking details, and email for remittance advice.
+#### Changes to Existing Supplier GSAR
+- **Supplier Name Change**: Letterhead must state the old and new names.
+- **Supplier Address Change**: Letterhead must state the old and new addresses.
+- **Supplier Contact Change**: Letterhead must provide old and new contact details.
+- **Supplier Contact Add**: Letterhead must provide new contact details and associated address.
+- **Banking Change**: Letterhead must include new banking details.
+- **Currency Change**: Letterhead must state old and new currency.
+### Important Notes
+- All documents must be dated within one year and include the printed name, job title, and signature of the supplier's representative.
+- A blank letterhead or copies of quotes, invoices, or emails are not acceptable.
+- For tax number changes due to a name change, a new supplier request must be made if not already existing in the system.
+This process ensures that all supplier information is up-to-date and verified, maintaining the integrity of the supplier database.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2025-04-16 14:44:36</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>give me a form to change address</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>To create a form for changing an address in the context of the Global Supplier Add Change Request (GSAR) process, you need to follow the guidelines for a "Supplier Address Change" request. Below is a markdown-formatted form template that you can use:
+```markdown
+# Supplier Address Change Request Form
+**Instructions:** Please complete the following form to request an address change for an existing supplier. Ensure all required information is provided on your company letterhead, and include any necessary documentation as specified.
+---
+## Supplier Information
+- **Supplier Name:** (as legally registered)
+- **Supplier ID:** (if applicable)
+## Current Address Information
+- **Current Address Type:** (Select one or both)
+  - [ ] Purchase Order Address (Indirect Suppliers)
+  - [ ] Ship From Address (Direct Suppliers)
+  - [ ] Payment Address
+- **Current Address:**
+  ```
+  [Street Address]
+  [City, State, ZIP/Postal Code]
+  [Country]
+  ```
+## New Address Information
+- **New Address Type:** (Select one or both)
+  - [ ] Purchase Order Address (Indirect Suppliers)
+  - [ ] Ship From Address (Direct Suppliers)
+  - [ ] Payment Address
+- **New Address:**
+  ```
+  [Street Address]
+  [City, State, ZIP/Postal Code]
+  [Country]
+  ```
+## Contact Information
+- **New Accounts Receivable Contact (if applicable):**
+  - **Name:** 
+  - **Email:** 
+  - **Phone:** 
+  - **Fax (if applicable):** 
+## Additional Information
+- **Please provide a statement on your company letterhead:**
+  ```
+  "Update our previous [address type] from [old address] to new [address type] [new address]."
+  ```
+- **Documentation Required:**
+  - Company letterhead with the above statement.
+  - Dated within one year.
+  - Printed name, job title, eSignature or physical signature of the company representative.
+---
+**Note:** Ensure all information is accurate and complete to avoid delays in processing your request. If you have any questions, please contact your GSAR Super User.
+```
+This form template provides a structured way to gather the necessary information for an address change request, ensuring compliance with the GSAR process requirements.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025-04-16 14:45:06</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>address change form</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>The **Global Supplier Add Change Request (GSAR)** is a process used by Cummins, Inc. to add or update suppliers in their Supplier 360 (S360) system. This ensures accurate supplier information and requires verification through documentation for any new additions or changes.
+### Getting Started with the GSAR Process
+1. **Identify a GSAR Super User**: The requestor must find a GSAR Super User using the GSAR Super User Contact List, filtered by their work location.
+2. **Contact the GSAR Super User**: Explain whether you are adding a new supplier or updating an existing one, and specify the changes.
+### Types of GSAR Requests
+- **New Supplier GSAR**: Used to add a new supplier. Initial information required includes:
+  - Country of the supplier
+  - Whether the supplier is indirect or direct
+  - Commodity or category of the supplier
+  - Payment terms
+- **Changes to Existing Supplier GSAR**: Used to update existing supplier information. There are two types:
+  - **Internal Changes**: Do not require documentation (e.g., payment terms change, add entity request, supplier inactivation).
+  - **External Changes**: Require documentation (e.g., supplier name change, address change, contact change, banking change, currency change).
+### Documentation Requirements
+- **Tax Documentation**:
+  - **US Suppliers**: W-9 form required.
+  - **India Suppliers**: PAN Card required.
+  - **Other Locations**: VAT/Tax ID number on letterhead.
+- **Letterhead Requirements**:
+  - Must include specific information based on whether the supplier is indirect or direct.
+  - Must be dated within one year and contain the printed name, job title, and signature of the supplier's representative.
+### External Changes Requiring Documentation
+- **Supplier Name Change**: Letterhead must state the old and new names.
+- **Supplier Address Change**: Letterhead must state the old and new addresses.
+- **Supplier Contact Change**: Letterhead must provide old and new contact details.
+- **Supplier Contact Add**: Letterhead must provide new contact details and associated address.
+- **Banking Change**: New banking details required on letterhead.
+- **Currency Change**: Old and new currency details required on letterhead.
+### Important Notes
+- All documentation must be dated within one year.
+- A blank copy of the letterhead or a copy of a quote, invoice, or email is not acceptable.
+- If changing a tax number due to a name change, a new supplier request must be made if not already existing in the system.
+This process ensures that all supplier information is accurate and verified, maintaining the integrity of the supplier master system.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2025-04-16 14:46:20</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>document to change address</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>To create a document for changing an address using the Global Supplier Add Change Request (GSAR) process, you need to follow these steps:
+### Steps for Supplier Address Change:
+1. **Identify the Type of Address:**
+   - Determine if the address is a purchasing address (purchase order address for indirect suppliers or ship-from address for direct suppliers) or a payment address (remit-to address).
+2. **Prepare the Supplier Letterhead:**
+   - The letterhead must include:
+     - The previous address as it appears in the system.
+     - The new address to be updated.
+     - If applicable, specify if the address serves both purchasing and payment purposes.
+     - If the address is being split into separate purchasing and payment addresses, provide the new accounts receivable contact details (name, email, phone, and fax if applicable) for the payment address.
+3. **Example Verbiage for Letterhead:**
+   - For a purchasing address change:  
+     `"Update our previous purchase order address from [old address] to new purchase order address [new address]."`
+   - For a ship-from and payment address change:  
+     `"Please update our old ship-from and payment address [old address] to new ship-from address [new ship-from address] and new payment address [new payment address]."`
+4. **Additional Requirements:**
+   - Ensure all pages of the letterhead and supporting documents are dated within one year.
+   - Include the printed name, job title, eSignature, or physical signature of the supplier's company representative.
+5. **Submit the Request:**
+   - Contact a GSAR Super User to submit the request and provide the necessary documentation.
+By following these steps, you can ensure that the supplier address change is processed correctly through the GSAR system.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2025-04-16 14:52:59</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>document to change name</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Document Created</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2025-04-16 14:55:14</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>document to change name and address</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Document Created</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2025-04-16 14:55:33</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>how do I change payment terms?</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>To change the payment terms for a supplier, you need to follow the GSAR process for "Changes to Existing Supplier GSARs." Here’s a step-by-step guide:
+1. **Internal Change Request**: 
+   - Payment terms change is considered an internal change and does not require documentation from the supplier.
+   - If you are requesting to change the payment terms from any terms other than N90 (Net 90 or Due in 90 Days), you must provide a justification for the specific terms selected to the GSAR Super User.
+2. **Contact a GSAR Super User**:
+   - Find a GSAR Super User using the GSAR Super User Contact List, filtering by your work location.
+   - Contact the selected GSAR Super User and explain the change you want to make, including the justification for the new payment terms.
+3. **Provide Justification**:
+   - Clearly state why the non-standard payment terms are necessary. This justification is crucial for the GSAR Super User to process your request.
+If you need to proceed with creating or updating a GSAR document for this change, please let me know, and I can assist with that process.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2025-04-16 14:55:57</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/responses/GSAR Process.xlsx
+++ b/responses/GSAR Process.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -835,6 +835,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>what tax document do I need for a supplier in India?</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>For a supplier located in India, the required tax document is a **PAN Card**. This document is necessary for the Global Supplier Add Change Request (GSAR) process when adding a new supplier in India.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2025-04-16 18:34:52</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/responses/GSAR Process.xlsx
+++ b/responses/GSAR Process.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -828,11 +828,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-04-16 14:55:57</t>
+          <t>2025-04-23 15:11:33</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -853,6 +853,290 @@
       </c>
       <c r="D13" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Make me a form to update the name and address</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Document Created</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2025-04-23 14:57:54</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Make a form to update the name and address</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Document Created</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2025-04-23 14:59:24</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>make me a form to update the name and address</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Document Created</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2025-04-23 15:02:27</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>make me a form to change name and address</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Document Created</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2025-04-23 15:08:37</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>make me a form to change the name and address</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Document Created</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2025-04-23 15:06:20</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>How do I change an address?</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Document Created</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2025-04-23 15:09:59</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>how do I change the supplier name?</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Document Created</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2025-04-23 15:11:53</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>how do I update an address?</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Document Created</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2025-04-23 15:16:56</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>how do I update a name?</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Document Created</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2025-04-23 15:17:08</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>How do I update an address?</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>To update an address for an existing supplier in the Cummins Supplier 360 system, you need to follow the Global Supplier Add Change Request (GSAR) process. Here's a step-by-step guide on how to proceed:
+### Steps to Update a Supplier Address
+1. **Identify the Type of Address Change:**
+   - Determine if the address change is for a purchasing address (purchase order address for indirect suppliers or ship-from address for direct suppliers) or a remit-to address (payment address).
+2. **Prepare the Required Documentation:**
+   - Obtain the supplier's letterhead with the following details:
+     - The previous address as it appears in the system.
+     - The new address to be updated.
+     - If the address serves both purchasing and payment purposes, specify both.
+     - If the address is being split into separate purchasing and payment addresses, provide the new accounts receivable contact details (name, email, phone) for the payment address, or confirm that the existing contact can continue to be used.
+3. **Contact a GSAR Super User:**
+   - Locate a GSAR Super User using the GSAR Super User Contact List, filtered by your work location.
+   - Explain the specific changes you need to make to the supplier's address.
+4. **Submit the Request:**
+   - Provide the GSAR Super User with the supplier's letterhead and any other required documentation.
+   - Ensure that all pages of the letterhead and supporting documents are dated within one year and contain the printed name, job title, and eSignature or physical signature of the supplier's representative.
+5. **Verification and Processing:**
+   - The GSAR Super User will verify the requested changes against the existing supplier information in the system.
+   - Once verified, the changes will be processed in the Supplier 360 system.
+### Example Verbiage for Supplier Letterhead
+- For a purchasing address change:  
+  "Update our previous purchase order address from (old address) to new purchase order address (new address)."
+- For a ship-from and payment address change:  
+  "Please update our old ship-from and payment address (old address) to new ship-from address (new ship-from address) and new payment address (new payment address)."
+By following these steps and providing the necessary documentation, you can successfully update a supplier's address in the Cummins Supplier 360 system.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2025-04-23 15:51:42</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Make a document to change a name</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Document Created</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2025-04-23 16:39:28</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Make a document to change an address</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Document Created</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2025-04-23 16:40:32</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Make a document to change a name and address</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Document Created</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2025-04-23 16:42:30</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
